--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.124</v>
+        <v>-12.632</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.152000000000001</v>
+        <v>-8.198</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.796</v>
+        <v>-21.986</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.336</v>
+        <v>-8.024000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.69</v>
+        <v>-21.72</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.582</v>
+        <v>-12.44</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.84</v>
+        <v>-21.621</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.7</v>
+        <v>-12.72</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.054</v>
+        <v>-7.803000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.052</v>
+        <v>-7.506</v>
       </c>
     </row>
     <row r="14">
@@ -645,10 +645,10 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.796</v>
+        <v>-13.509</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.456</v>
+        <v>-8.182</v>
       </c>
     </row>
     <row r="16">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.112</v>
+        <v>-13.364</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.02</v>
+        <v>-22.11</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-7.974000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.83</v>
+        <v>-21.873</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.916000000000001</v>
+        <v>-7.704000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.048</v>
+        <v>-13.236</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.186</v>
+        <v>-12.957</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.276</v>
+        <v>-12.807</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.428</v>
+        <v>-12.172</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.434</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="33">
@@ -942,18 +942,18 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.409999999999999</v>
+        <v>-7.518000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.108</v>
+        <v>-19.708</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.22</v>
+        <v>-12.14</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.404000000000001</v>
+        <v>-7.717000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1009,10 +1009,10 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.072</v>
+        <v>-12.112</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.766</v>
+        <v>-7.611</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.786</v>
+        <v>-12.432</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.814</v>
+        <v>-7.843000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.03</v>
+        <v>-12.157</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.288</v>
+        <v>-8.088000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.584</v>
+        <v>-22.094</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-6.964</v>
+        <v>-7.551</v>
       </c>
     </row>
     <row r="60">
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.934</v>
+        <v>-12.1</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-8.102</v>
+        <v>-7.687</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.47</v>
+        <v>-21.673</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.73</v>
+        <v>-12.685</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.164</v>
+        <v>-20.409</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.822</v>
+        <v>-20.201</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.118</v>
+        <v>-20.769</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.984</v>
+        <v>-20.239</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.02</v>
+        <v>-21.818</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.188</v>
+        <v>-22.109</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,16 +1605,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.876</v>
+        <v>-21.813</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.472</v>
+        <v>-11.901</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.714</v>
+        <v>-7.484</v>
       </c>
     </row>
     <row r="85">
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.92</v>
+        <v>-11.725</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.936000000000002</v>
+        <v>-7.874000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.712000000000001</v>
+        <v>-8.026</v>
       </c>
     </row>
     <row r="89">
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.832</v>
+        <v>-13.787</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.367999999999999</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-14.052</v>
+        <v>-12.609</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.368</v>
+        <v>-12.217</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.580000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.758</v>
+        <v>-12.991</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.876</v>
+        <v>-11.728</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.192</v>
+        <v>-20.326</v>
       </c>
       <c r="B101" t="n">
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.394</v>
+        <v>-12.514</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.154</v>
+        <v>-20.075</v>
       </c>
       <c r="B102" t="n">
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.806</v>
+        <v>-12.255</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.26</v>
+        <v>-7.777999999999999</v>
       </c>
     </row>
   </sheetData>
